--- a/medicine/Enfance/Lecture_et_Loisir/Lecture_et_Loisir.xlsx
+++ b/medicine/Enfance/Lecture_et_Loisir/Lecture_et_Loisir.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lecture et Loisir  est une collection française de livres pour la jeunesse créée et éditée de 1959 à 1983 par les éditions Libraire Charpentier, Ces dernières seront rachetées en 1978 par les éditions Dargaud. 
 À partir de 1979, la collection quitte l'appellation Charpentier pour passer sous celle de la maison-mère, Dargaud, qui distribuait déjà la série dans son catalogue avant cette date. 
@@ -516,7 +528,9 @@
           <t>Aspect des livres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cartonnés, pelliculés et reliés, les ouvrages comportent environ 192 pages sur papier moyen de gamme. La couleur du dos (tranche) détermine l'âge des lecteurs : 
 Rouge : Pour enfants de 6 à 11 ans.
@@ -552,7 +566,9 @@
           <t>Liste des titres parus</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Note : Liste exhaustive. La première date est celle de la première édition française.
 1959 : Les Malheurs de Sophie de Comtesse de Ségur. Illustré par Matèje, couverture de Henri Dimpre.
@@ -566,7 +582,7 @@
 1959 : Les 24 Heures du Mans de Paul Massonnet et François Cavanna. Préface de Jean Behra et Maurice Trintignant. Illustré par Georges Brient.
 1959 : Voyages au fond des gouffres : Jean Jacques Charles de Norbert Casteret. Illustré par Henri Dimpre et P. Grammont.
 1959 : Les Voyages de Gulliver de Jonathan Swift. Illustré par Henri Dimpre et Jylbert.
-1959 : Les Patins d'argent de Mary Mapes Dodge[1]. Traduit par J. L. François. Illustré par Jacqueline Guyot. Couverture de Henri Dimpre.
+1959 : Les Patins d'argent de Mary Mapes Dodge. Traduit par J. L. François. Illustré par Jacqueline Guyot. Couverture de Henri Dimpre.
 1959 : Seul autour du monde : Alain Gerbault de Claude Ache. Illustré par Georges Brient et André Bacon.
 1959 : Les Vacances de Comtesse de Ségur. Illustré par Henri Dimpre et Matéja.
 1959 : Dans l'espace de Claude Appell. Illustré par Georges Brient.
